--- a/invoices/2025-09-03_Invoices-To-Key/Olin-Invoices-2025-09-03.xlsx
+++ b/invoices/2025-09-03_Invoices-To-Key/Olin-Invoices-2025-09-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwinsor/projects/technical-services/invoices/2025-09-03_Invoices-To-Key/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FDED46-9D07-8444-8A2C-7281F10683A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7100FC63-1F0B-9342-8ECA-23CA7E54E42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{1CE28F18-6076-FC44-BB7B-CF67318EAE8A}"/>
   </bookViews>
@@ -464,6 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409A3790-D5BB-094A-A84E-C2896F833084}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -562,6 +565,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
